--- a/Sep19/pos_gains_and_pos_prof/Tables/income.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/income.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -425,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -453,68 +456,102 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>4.768744564314969</v>
@@ -564,34 +601,58 @@
       <c r="Q4">
         <v>0.2147588053950578</v>
       </c>
+      <c r="R4">
+        <v>958366954868</v>
+      </c>
+      <c r="S4">
+        <v>958617846484</v>
+      </c>
+      <c r="T4">
+        <v>956175459402</v>
+      </c>
+      <c r="U4">
+        <v>956426351018</v>
+      </c>
+      <c r="V4">
+        <v>1008209699708</v>
+      </c>
+      <c r="W4">
+        <v>1008209699708</v>
+      </c>
+      <c r="X4">
+        <v>1008209699708</v>
+      </c>
+      <c r="Y4">
+        <v>1008209699708</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>2.296491669346442</v>
@@ -617,10 +678,34 @@
       <c r="Q5">
         <v>2.296491669346442</v>
       </c>
+      <c r="R5">
+        <v>3140810</v>
+      </c>
+      <c r="S5">
+        <v>3140810</v>
+      </c>
+      <c r="T5">
+        <v>3140810</v>
+      </c>
+      <c r="U5">
+        <v>3140810</v>
+      </c>
+      <c r="V5">
+        <v>3140810</v>
+      </c>
+      <c r="W5">
+        <v>3140810</v>
+      </c>
+      <c r="X5">
+        <v>3140810</v>
+      </c>
+      <c r="Y5">
+        <v>3140810</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.7827907444583696</v>
@@ -670,10 +755,34 @@
       <c r="Q6">
         <v>0.3894581041516433</v>
       </c>
+      <c r="R6">
+        <v>2557154421</v>
+      </c>
+      <c r="S6">
+        <v>16062039693</v>
+      </c>
+      <c r="T6">
+        <v>2124037026</v>
+      </c>
+      <c r="U6">
+        <v>17056843395</v>
+      </c>
+      <c r="V6">
+        <v>21277927825</v>
+      </c>
+      <c r="W6">
+        <v>21277927825</v>
+      </c>
+      <c r="X6">
+        <v>21277927825</v>
+      </c>
+      <c r="Y6">
+        <v>21277927825</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2.376273750230558</v>
@@ -699,10 +808,22 @@
       <c r="M7">
         <v>0.3977401926186418</v>
       </c>
+      <c r="R7">
+        <v>11464456004</v>
+      </c>
+      <c r="S7">
+        <v>868911225</v>
+      </c>
+      <c r="T7">
+        <v>1750040641</v>
+      </c>
+      <c r="U7">
+        <v>868911225</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1.209991637835355</v>
@@ -752,11 +873,36 @@
       <c r="Q8">
         <v>0.38480040209338</v>
       </c>
+      <c r="R8">
+        <v>41567527900</v>
+      </c>
+      <c r="S8">
+        <v>47033047618</v>
+      </c>
+      <c r="T8">
+        <v>41286747272</v>
+      </c>
+      <c r="U8">
+        <v>47534570308</v>
+      </c>
+      <c r="V8">
+        <v>49527932043</v>
+      </c>
+      <c r="W8">
+        <v>49527932043</v>
+      </c>
+      <c r="X8">
+        <v>49527932043</v>
+      </c>
+      <c r="Y8">
+        <v>49527932043</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sep19/pos_gains_and_pos_prof/Tables/income.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/income.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -560,16 +560,16 @@
         <v>3.404697731325947</v>
       </c>
       <c r="D4">
+        <v>1.090355678702299</v>
+      </c>
+      <c r="E4">
+        <v>0.9036458532427226</v>
+      </c>
+      <c r="F4">
         <v>5.451778393511495</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>4.518229266213623</v>
-      </c>
-      <c r="F4">
-        <v>1.765786126957369</v>
-      </c>
-      <c r="G4">
-        <v>1.715956248084734</v>
       </c>
       <c r="H4">
         <v>8.828930634786847</v>
@@ -590,10 +590,10 @@
         <v>0.2133203841653253</v>
       </c>
       <c r="N4">
-        <v>0.2147588053950578</v>
+        <v>0.2133331070738557</v>
       </c>
       <c r="O4">
-        <v>0.2147588053950578</v>
+        <v>0.2133203841653253</v>
       </c>
       <c r="P4">
         <v>0.2147588053950578</v>
@@ -614,10 +614,10 @@
         <v>956426351018</v>
       </c>
       <c r="V4">
-        <v>1008209699708</v>
+        <v>956175459402</v>
       </c>
       <c r="W4">
-        <v>1008209699708</v>
+        <v>956426351018</v>
       </c>
       <c r="X4">
         <v>1008209699708</v>
@@ -714,16 +714,16 @@
         <v>22.6352011470314</v>
       </c>
       <c r="D6">
+        <v>0.7050127574638287</v>
+      </c>
+      <c r="E6">
+        <v>2.773577005388292</v>
+      </c>
+      <c r="F6">
         <v>3.525063787319145</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>13.86788502694147</v>
-      </c>
-      <c r="F6">
-        <v>0.2422255973874029</v>
-      </c>
-      <c r="G6">
-        <v>0.8898072817619713</v>
       </c>
       <c r="H6">
         <v>1.211127986937016</v>
@@ -744,10 +744,10 @@
         <v>0.4097340342028742</v>
       </c>
       <c r="N6">
-        <v>0.3894581041516433</v>
+        <v>1.072913968120253</v>
       </c>
       <c r="O6">
-        <v>0.3894581041516433</v>
+        <v>0.4097340342028742</v>
       </c>
       <c r="P6">
         <v>0.3894581041516433</v>
@@ -768,10 +768,10 @@
         <v>17056843395</v>
       </c>
       <c r="V6">
-        <v>21277927825</v>
+        <v>2124037026</v>
       </c>
       <c r="W6">
-        <v>21277927825</v>
+        <v>17056843395</v>
       </c>
       <c r="X6">
         <v>21277927825</v>
@@ -791,9 +791,15 @@
         <v>3.408425955441787</v>
       </c>
       <c r="D7">
+        <v>0.6942562708641375</v>
+      </c>
+      <c r="E7">
+        <v>0.7822019816789091</v>
+      </c>
+      <c r="F7">
         <v>3.471281354320685</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>3.911009908394546</v>
       </c>
       <c r="J7">
@@ -808,6 +814,12 @@
       <c r="M7">
         <v>0.3977401926186418</v>
       </c>
+      <c r="N7">
+        <v>0.2339064661756046</v>
+      </c>
+      <c r="O7">
+        <v>0.3977401926186418</v>
+      </c>
       <c r="R7">
         <v>11464456004</v>
       </c>
@@ -818,6 +830,12 @@
         <v>1750040641</v>
       </c>
       <c r="U7">
+        <v>868911225</v>
+      </c>
+      <c r="V7">
+        <v>1750040641</v>
+      </c>
+      <c r="W7">
         <v>868911225</v>
       </c>
     </row>
@@ -832,16 +850,16 @@
         <v>3.480961893692175</v>
       </c>
       <c r="D8">
+        <v>0.2250293725144459</v>
+      </c>
+      <c r="E8">
+        <v>0.5258857082920571</v>
+      </c>
+      <c r="F8">
         <v>1.125146862572229</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>2.629428541460285</v>
-      </c>
-      <c r="F8">
-        <v>0.1441163012560585</v>
-      </c>
-      <c r="G8">
-        <v>0.2570622504960177</v>
       </c>
       <c r="H8">
         <v>0.7205815062802927</v>
@@ -862,10 +880,10 @@
         <v>0.3808706636599813</v>
       </c>
       <c r="N8">
-        <v>0.38480040209338</v>
+        <v>0.4134566240721217</v>
       </c>
       <c r="O8">
-        <v>0.38480040209338</v>
+        <v>0.3808706636599813</v>
       </c>
       <c r="P8">
         <v>0.38480040209338</v>
@@ -886,10 +904,10 @@
         <v>47534570308</v>
       </c>
       <c r="V8">
-        <v>49527932043</v>
+        <v>41286747272</v>
       </c>
       <c r="W8">
-        <v>49527932043</v>
+        <v>47534570308</v>
       </c>
       <c r="X8">
         <v>49527932043</v>

--- a/Sep19/pos_gains_and_pos_prof/Tables/income.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/income.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -560,22 +560,22 @@
         <v>3.404697731325947</v>
       </c>
       <c r="D4">
-        <v>1.090355678702299</v>
+        <v>5.451778393511495</v>
       </c>
       <c r="E4">
-        <v>0.9036458532427226</v>
+        <v>4.518229266213623</v>
       </c>
       <c r="F4">
-        <v>5.451778393511495</v>
+        <v>0.6407361551532451</v>
       </c>
       <c r="G4">
-        <v>4.518229266213623</v>
+        <v>0.4574606386245244</v>
       </c>
       <c r="H4">
-        <v>8.828930634786847</v>
+        <v>3.203680775766237</v>
       </c>
       <c r="I4">
-        <v>8.579781240423664</v>
+        <v>2.287303193122633</v>
       </c>
       <c r="J4">
         <v>0.2156249116743205</v>
@@ -590,16 +590,16 @@
         <v>0.2133203841653253</v>
       </c>
       <c r="N4">
-        <v>0.2133331070738557</v>
+        <v>0.2156249116743205</v>
       </c>
       <c r="O4">
-        <v>0.2133203841653253</v>
+        <v>0.215611618035373</v>
       </c>
       <c r="P4">
-        <v>0.2147588053950578</v>
+        <v>0.2156249116743205</v>
       </c>
       <c r="Q4">
-        <v>0.2147588053950578</v>
+        <v>0.215611618035373</v>
       </c>
       <c r="R4">
         <v>958366954868</v>
@@ -614,16 +614,16 @@
         <v>956426351018</v>
       </c>
       <c r="V4">
-        <v>956175459402</v>
+        <v>958366954868</v>
       </c>
       <c r="W4">
-        <v>956426351018</v>
+        <v>958617846484</v>
       </c>
       <c r="X4">
-        <v>1008209699708</v>
+        <v>958366954868</v>
       </c>
       <c r="Y4">
-        <v>1008209699708</v>
+        <v>958617846484</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -714,22 +714,22 @@
         <v>22.6352011470314</v>
       </c>
       <c r="D6">
-        <v>0.7050127574638287</v>
+        <v>3.525063787319145</v>
       </c>
       <c r="E6">
-        <v>2.773577005388292</v>
+        <v>13.86788502694147</v>
       </c>
       <c r="F6">
-        <v>3.525063787319145</v>
+        <v>0.1051770177935403</v>
       </c>
       <c r="G6">
-        <v>13.86788502694147</v>
+        <v>3.041301868545912</v>
       </c>
       <c r="H6">
-        <v>1.211127986937016</v>
+        <v>0.5258850889677018</v>
       </c>
       <c r="I6">
-        <v>4.449036408809857</v>
+        <v>15.20650934272957</v>
       </c>
       <c r="J6">
         <v>0.9209235921227926</v>
@@ -744,16 +744,16 @@
         <v>0.4097340342028742</v>
       </c>
       <c r="N6">
-        <v>1.072913968120253</v>
+        <v>0.9209235921227926</v>
       </c>
       <c r="O6">
-        <v>0.4097340342028742</v>
+        <v>0.3408518174927661</v>
       </c>
       <c r="P6">
-        <v>0.3894581041516433</v>
+        <v>0.9209235921227926</v>
       </c>
       <c r="Q6">
-        <v>0.3894581041516433</v>
+        <v>0.3408518174927661</v>
       </c>
       <c r="R6">
         <v>2557154421</v>
@@ -768,16 +768,16 @@
         <v>17056843395</v>
       </c>
       <c r="V6">
-        <v>2124037026</v>
+        <v>2557154421</v>
       </c>
       <c r="W6">
-        <v>17056843395</v>
+        <v>16062039693</v>
       </c>
       <c r="X6">
-        <v>21277927825</v>
+        <v>2557154421</v>
       </c>
       <c r="Y6">
-        <v>21277927825</v>
+        <v>16062039693</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -791,16 +791,22 @@
         <v>3.408425955441787</v>
       </c>
       <c r="D7">
-        <v>0.6942562708641375</v>
+        <v>3.471281354320685</v>
       </c>
       <c r="E7">
-        <v>0.7822019816789091</v>
+        <v>3.911009908394546</v>
       </c>
       <c r="F7">
-        <v>3.471281354320685</v>
+        <v>0.3192799458599287</v>
       </c>
       <c r="G7">
-        <v>3.911009908394546</v>
+        <v>0.4579615687861911</v>
+      </c>
+      <c r="H7">
+        <v>1.596399729299646</v>
+      </c>
+      <c r="I7">
+        <v>2.289807843930956</v>
       </c>
       <c r="J7">
         <v>0.1739188348146938</v>
@@ -815,11 +821,17 @@
         <v>0.3977401926186418</v>
       </c>
       <c r="N7">
-        <v>0.2339064661756046</v>
+        <v>0.1739188348146938</v>
       </c>
       <c r="O7">
         <v>0.3977401926186418</v>
       </c>
+      <c r="P7">
+        <v>0.1739188348146938</v>
+      </c>
+      <c r="Q7">
+        <v>0.3977401926186418</v>
+      </c>
       <c r="R7">
         <v>11464456004</v>
       </c>
@@ -833,9 +845,15 @@
         <v>868911225</v>
       </c>
       <c r="V7">
-        <v>1750040641</v>
+        <v>11464456004</v>
       </c>
       <c r="W7">
+        <v>868911225</v>
+      </c>
+      <c r="X7">
+        <v>11464456004</v>
+      </c>
+      <c r="Y7">
         <v>868911225</v>
       </c>
     </row>
@@ -850,22 +868,22 @@
         <v>3.480961893692175</v>
       </c>
       <c r="D8">
-        <v>0.2250293725144459</v>
+        <v>1.125146862572229</v>
       </c>
       <c r="E8">
-        <v>0.5258857082920571</v>
+        <v>2.629428541460285</v>
       </c>
       <c r="F8">
-        <v>1.125146862572229</v>
+        <v>0.1625764138418631</v>
       </c>
       <c r="G8">
-        <v>2.629428541460285</v>
+        <v>0.467707613590682</v>
       </c>
       <c r="H8">
-        <v>0.7205815062802927</v>
+        <v>0.8128820692093159</v>
       </c>
       <c r="I8">
-        <v>1.285311252480088</v>
+        <v>2.338538067953412</v>
       </c>
       <c r="J8">
         <v>0.409259765481507</v>
@@ -880,16 +898,16 @@
         <v>0.3808706636599813</v>
       </c>
       <c r="N8">
-        <v>0.4134566240721217</v>
+        <v>0.409259765481507</v>
       </c>
       <c r="O8">
-        <v>0.3808706636599813</v>
+        <v>0.3808709482637124</v>
       </c>
       <c r="P8">
-        <v>0.38480040209338</v>
+        <v>0.409259765481507</v>
       </c>
       <c r="Q8">
-        <v>0.38480040209338</v>
+        <v>0.3808709482637124</v>
       </c>
       <c r="R8">
         <v>41567527900</v>
@@ -904,16 +922,16 @@
         <v>47534570308</v>
       </c>
       <c r="V8">
-        <v>41286747272</v>
+        <v>41567527900</v>
       </c>
       <c r="W8">
-        <v>47534570308</v>
+        <v>47033047618</v>
       </c>
       <c r="X8">
-        <v>49527932043</v>
+        <v>41567527900</v>
       </c>
       <c r="Y8">
-        <v>49527932043</v>
+        <v>47033047618</v>
       </c>
     </row>
   </sheetData>
